--- a/Extracted PDFs/Book with 2 tables.xlsx
+++ b/Extracted PDFs/Book with 2 tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Installation of Aerial Cable</x:t>
   </x:si>
@@ -208,7 +208,7 @@
     <x:t>880.00</x:t>
   </x:si>
   <x:si>
-    <x:t>ISP Building Survey. Design per building</x:t>
+    <x:t>ISP Building Survey, Design per building</x:t>
   </x:si>
   <x:si>
     <x:t>4,400.00</x:t>
@@ -232,61 +232,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Column1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supply. Install corrugated PVC pipe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supply. Install PlasticTrunking size 38'25mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161.774.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pole Down-lead clamp. Supply and Installation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.200.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pole Tension Clamp. Supply and Installation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GF-Planning Services(1.2/0.6 Trench)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46.46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GF-Project Management Incl of H&amp;S (1.2/0.6 Trench)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59.63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GF-Civil Works for Main Route(1.2 Trench)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>556.82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,113.64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Linearised Rate :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ksh 1,279.36</x:t>
+    <x:t>UOM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -652,8 +598,8 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E1" sqref="E1 1:1048576"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1 A1:E19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,6 +1229,57 @@
         <x:v>53</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1299,8 +1296,8 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 1:1048576"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 1:1048576 A1:C6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1371,7 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>12</x:v>
@@ -1388,7 +1385,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
@@ -1439,7 +1436,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1472,7 +1469,7 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>35</x:v>
@@ -1489,7 +1486,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>17</x:v>
@@ -1542,7 +1539,7 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>51</x:v>
@@ -1598,60 +1595,308 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
